--- a/TestLead.xlsx
+++ b/TestLead.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -254,54 +254,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the SFDC_Donation_Site__c is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_9.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_10.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_11.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_12.TestCase_1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -385,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J62" totalsRowShown="0">
-  <x:autoFilter ref="A1:J62"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J29" totalsRowShown="0">
+  <x:autoFilter ref="A1:J29"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -691,13 +643,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J62"/>
+  <x:dimension ref="A1:J29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.130625000000002" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
@@ -1329,708 +1281,6 @@
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
     </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s"/>
-      <x:c r="F30" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="0" t="s"/>
-      <x:c r="B32" s="0" t="s"/>
-      <x:c r="C32" s="0" t="s"/>
-      <x:c r="D32" s="0" t="s"/>
-      <x:c r="E32" s="0" t="s"/>
-      <x:c r="F32" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="I32" s="0" t="s"/>
-      <x:c r="J32" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:10">
-      <x:c r="A33" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s"/>
-      <x:c r="F33" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s"/>
-      <x:c r="J33" s="0" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s"/>
-      <x:c r="B34" s="0" t="s"/>
-      <x:c r="C34" s="0" t="s"/>
-      <x:c r="D34" s="0" t="s"/>
-      <x:c r="E34" s="0" t="s"/>
-      <x:c r="F34" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s"/>
-      <x:c r="J34" s="0" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s"/>
-      <x:c r="F35" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s"/>
-      <x:c r="J35" s="0" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:10">
-      <x:c r="A36" s="0" t="s"/>
-      <x:c r="B36" s="0" t="s"/>
-      <x:c r="C36" s="0" t="s"/>
-      <x:c r="D36" s="0" t="s"/>
-      <x:c r="E36" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s"/>
-      <x:c r="J36" s="0" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s"/>
-      <x:c r="B37" s="0" t="s"/>
-      <x:c r="C37" s="0" t="s"/>
-      <x:c r="D37" s="0" t="s"/>
-      <x:c r="E37" s="0" t="s"/>
-      <x:c r="F37" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s"/>
-      <x:c r="J37" s="0" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E38" s="0" t="s"/>
-      <x:c r="F38" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="s"/>
-      <x:c r="J38" s="0" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:10">
-      <x:c r="A39" s="0" t="s"/>
-      <x:c r="B39" s="0" t="s"/>
-      <x:c r="C39" s="0" t="s"/>
-      <x:c r="D39" s="0" t="s"/>
-      <x:c r="E39" s="0" t="s"/>
-      <x:c r="F39" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s"/>
-      <x:c r="J39" s="0" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:10">
-      <x:c r="A40" s="0" t="s"/>
-      <x:c r="B40" s="0" t="s"/>
-      <x:c r="C40" s="0" t="s"/>
-      <x:c r="D40" s="0" t="s"/>
-      <x:c r="E40" s="0" t="s"/>
-      <x:c r="F40" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s"/>
-      <x:c r="J40" s="0" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E41" s="0" t="s"/>
-      <x:c r="F41" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="s"/>
-      <x:c r="J41" s="0" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:10">
-      <x:c r="A42" s="0" t="s"/>
-      <x:c r="B42" s="0" t="s"/>
-      <x:c r="C42" s="0" t="s"/>
-      <x:c r="D42" s="0" t="s"/>
-      <x:c r="E42" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s"/>
-      <x:c r="J42" s="0" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:10">
-      <x:c r="A43" s="0" t="s"/>
-      <x:c r="B43" s="0" t="s"/>
-      <x:c r="C43" s="0" t="s"/>
-      <x:c r="D43" s="0" t="s"/>
-      <x:c r="E43" s="0" t="s"/>
-      <x:c r="F43" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="s"/>
-      <x:c r="J43" s="0" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:10">
-      <x:c r="A44" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s"/>
-      <x:c r="F44" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="s"/>
-      <x:c r="J44" s="0" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s"/>
-      <x:c r="B45" s="0" t="s"/>
-      <x:c r="C45" s="0" t="s"/>
-      <x:c r="D45" s="0" t="s"/>
-      <x:c r="E45" s="0" t="s"/>
-      <x:c r="F45" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I45" s="0" t="s"/>
-      <x:c r="J45" s="0" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C46" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s"/>
-      <x:c r="F46" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="s"/>
-      <x:c r="J46" s="0" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="0" t="s"/>
-      <x:c r="B47" s="0" t="s"/>
-      <x:c r="C47" s="0" t="s"/>
-      <x:c r="D47" s="0" t="s"/>
-      <x:c r="E47" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F47" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s"/>
-      <x:c r="J47" s="0" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s"/>
-      <x:c r="B48" s="0" t="s"/>
-      <x:c r="C48" s="0" t="s"/>
-      <x:c r="D48" s="0" t="s"/>
-      <x:c r="E48" s="0" t="s"/>
-      <x:c r="F48" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G48" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="s"/>
-      <x:c r="J48" s="0" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s"/>
-      <x:c r="F49" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s"/>
-      <x:c r="J49" s="0" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:10">
-      <x:c r="A50" s="0" t="s"/>
-      <x:c r="B50" s="0" t="s"/>
-      <x:c r="C50" s="0" t="s"/>
-      <x:c r="D50" s="0" t="s"/>
-      <x:c r="E50" s="0" t="s"/>
-      <x:c r="F50" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="s"/>
-      <x:c r="J50" s="0" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s"/>
-      <x:c r="B51" s="0" t="s"/>
-      <x:c r="C51" s="0" t="s"/>
-      <x:c r="D51" s="0" t="s"/>
-      <x:c r="E51" s="0" t="s"/>
-      <x:c r="F51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s"/>
-      <x:c r="J51" s="0" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:10">
-      <x:c r="A52" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C52" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="s"/>
-      <x:c r="F52" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G52" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I52" s="0" t="s"/>
-      <x:c r="J52" s="0" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:10">
-      <x:c r="A53" s="0" t="s"/>
-      <x:c r="B53" s="0" t="s"/>
-      <x:c r="C53" s="0" t="s"/>
-      <x:c r="D53" s="0" t="s"/>
-      <x:c r="E53" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F53" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G53" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H53" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I53" s="0" t="s"/>
-      <x:c r="J53" s="0" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:10">
-      <x:c r="A54" s="0" t="s"/>
-      <x:c r="B54" s="0" t="s"/>
-      <x:c r="C54" s="0" t="s"/>
-      <x:c r="D54" s="0" t="s"/>
-      <x:c r="E54" s="0" t="s"/>
-      <x:c r="F54" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s"/>
-      <x:c r="J54" s="0" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:10">
-      <x:c r="A55" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D55" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E55" s="0" t="s"/>
-      <x:c r="F55" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G55" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H55" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="I55" s="0" t="s"/>
-      <x:c r="J55" s="0" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:10">
-      <x:c r="A56" s="0" t="s"/>
-      <x:c r="B56" s="0" t="s"/>
-      <x:c r="C56" s="0" t="s"/>
-      <x:c r="D56" s="0" t="s"/>
-      <x:c r="E56" s="0" t="s"/>
-      <x:c r="F56" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I56" s="0" t="s"/>
-      <x:c r="J56" s="0" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:10">
-      <x:c r="A57" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D57" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E57" s="0" t="s"/>
-      <x:c r="F57" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G57" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H57" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I57" s="0" t="s"/>
-      <x:c r="J57" s="0" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:10">
-      <x:c r="A58" s="0" t="s"/>
-      <x:c r="B58" s="0" t="s"/>
-      <x:c r="C58" s="0" t="s"/>
-      <x:c r="D58" s="0" t="s"/>
-      <x:c r="E58" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F58" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G58" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I58" s="0" t="s"/>
-      <x:c r="J58" s="0" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:10">
-      <x:c r="A59" s="0" t="s"/>
-      <x:c r="B59" s="0" t="s"/>
-      <x:c r="C59" s="0" t="s"/>
-      <x:c r="D59" s="0" t="s"/>
-      <x:c r="E59" s="0" t="s"/>
-      <x:c r="F59" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G59" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H59" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I59" s="0" t="s"/>
-      <x:c r="J59" s="0" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:10">
-      <x:c r="A60" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C60" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E60" s="0" t="s"/>
-      <x:c r="F60" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G60" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H60" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="s"/>
-      <x:c r="J60" s="0" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:10">
-      <x:c r="A61" s="0" t="s"/>
-      <x:c r="B61" s="0" t="s"/>
-      <x:c r="C61" s="0" t="s"/>
-      <x:c r="D61" s="0" t="s"/>
-      <x:c r="E61" s="0" t="s"/>
-      <x:c r="F61" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G61" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H61" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I61" s="0" t="s"/>
-      <x:c r="J61" s="0" t="s"/>
-    </x:row>
-    <x:row r="62" spans="1:10">
-      <x:c r="A62" s="0" t="s"/>
-      <x:c r="B62" s="0" t="s"/>
-      <x:c r="C62" s="0" t="s"/>
-      <x:c r="D62" s="0" t="s"/>
-      <x:c r="E62" s="0" t="s"/>
-      <x:c r="F62" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G62" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H62" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I62" s="0" t="s"/>
-      <x:c r="J62" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
